--- a/Табличка ЛШК.xlsx
+++ b/Табличка ЛШК.xlsx
@@ -688,7 +688,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
